--- a/Code/Results/Cases/Case_3_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.979989834080413</v>
+        <v>0.977845674447849</v>
       </c>
       <c r="C2">
-        <v>0.311909234209125</v>
+        <v>0.2734622245895366</v>
       </c>
       <c r="D2">
-        <v>0.09543005083959599</v>
+        <v>0.2214358252317083</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6077364812825721</v>
+        <v>1.253651696097307</v>
       </c>
       <c r="G2">
-        <v>0.3825078370240504</v>
+        <v>0.6567907814089722</v>
       </c>
       <c r="H2">
-        <v>0.3117761717542464</v>
+        <v>0.7701826252495749</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08244372085308915</v>
+        <v>0.2229225274845356</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1978826985184057</v>
+        <v>0.3280651365297373</v>
       </c>
       <c r="M2">
-        <v>0.3668636407635901</v>
+        <v>0.26721371665883</v>
       </c>
       <c r="N2">
-        <v>0.8643849570423967</v>
+        <v>1.465218122115189</v>
       </c>
       <c r="O2">
-        <v>1.412361509454058</v>
+        <v>2.845898825768586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.723937958528751</v>
+        <v>0.9024912028600625</v>
       </c>
       <c r="C3">
-        <v>0.2929495688116504</v>
+        <v>0.2671379641161451</v>
       </c>
       <c r="D3">
-        <v>0.09171277208063344</v>
+        <v>0.2214603815762857</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5868943065814634</v>
+        <v>1.257586859865661</v>
       </c>
       <c r="G3">
-        <v>0.3634201136857982</v>
+        <v>0.6576568856440375</v>
       </c>
       <c r="H3">
-        <v>0.3083773732317425</v>
+        <v>0.774394196528057</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08528323465108856</v>
+        <v>0.2246085862268781</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1818894006099541</v>
+        <v>0.3250958909660824</v>
       </c>
       <c r="M3">
-        <v>0.3215773383054668</v>
+        <v>0.2547157732088507</v>
       </c>
       <c r="N3">
-        <v>0.8834412449697666</v>
+        <v>1.475217591408736</v>
       </c>
       <c r="O3">
-        <v>1.364422999438148</v>
+        <v>2.856278980734061</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.566886301478092</v>
+        <v>0.8563620134113137</v>
       </c>
       <c r="C4">
-        <v>0.2812989867404667</v>
+        <v>0.2632431640283812</v>
       </c>
       <c r="D4">
-        <v>0.08951274594941339</v>
+        <v>0.2215425151552211</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5751655233323802</v>
+        <v>1.260636837119307</v>
       </c>
       <c r="G4">
-        <v>0.3525057667902587</v>
+        <v>0.6586048167407554</v>
       </c>
       <c r="H4">
-        <v>0.3068005725021123</v>
+        <v>0.7773058055078863</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08710507777560927</v>
+        <v>0.2257003439741544</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.172206916719162</v>
+        <v>0.3233802269507819</v>
       </c>
       <c r="M4">
-        <v>0.2938587522846774</v>
+        <v>0.247112011517153</v>
       </c>
       <c r="N4">
-        <v>0.8961105508383582</v>
+        <v>1.481856619471635</v>
       </c>
       <c r="O4">
-        <v>1.337754363250525</v>
+        <v>2.864206653534254</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.50291286791122</v>
+        <v>0.8376003736272821</v>
       </c>
       <c r="C5">
-        <v>0.2765484401839728</v>
+        <v>0.2616532101689586</v>
       </c>
       <c r="D5">
-        <v>0.08863637499039356</v>
+        <v>0.2215929034100057</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5706432826740127</v>
+        <v>1.262039229308023</v>
       </c>
       <c r="G5">
-        <v>0.3482504352376026</v>
+        <v>0.6590957436239648</v>
       </c>
       <c r="H5">
-        <v>0.3062817251084269</v>
+        <v>0.7785742903925978</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08786699831836831</v>
+        <v>0.2261594737772035</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1682940723530422</v>
+        <v>0.3227082335410643</v>
       </c>
       <c r="M5">
-        <v>0.2825821086055811</v>
+        <v>0.2440313022478122</v>
       </c>
       <c r="N5">
-        <v>0.9015109499314988</v>
+        <v>1.484687795938697</v>
       </c>
       <c r="O5">
-        <v>1.327550954531631</v>
+        <v>2.867828224232611</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.492291295923224</v>
+        <v>0.8344872586376084</v>
       </c>
       <c r="C6">
-        <v>0.2757594300811945</v>
+        <v>0.261389035244548</v>
       </c>
       <c r="D6">
-        <v>0.08849205575551622</v>
+        <v>0.2216022938152022</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5699075884024865</v>
+        <v>1.262281732938028</v>
       </c>
       <c r="G6">
-        <v>0.3475551678557594</v>
+        <v>0.6591835813631377</v>
       </c>
       <c r="H6">
-        <v>0.3062029134621795</v>
+        <v>0.7787898752366331</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08799468689385614</v>
+        <v>0.2262365719431894</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1676462826853609</v>
+        <v>0.3225982934041838</v>
       </c>
       <c r="M6">
-        <v>0.2807106858918402</v>
+        <v>0.2435208411968901</v>
       </c>
       <c r="N6">
-        <v>0.9024218589201496</v>
+        <v>1.485165508562183</v>
       </c>
       <c r="O6">
-        <v>1.325895920010865</v>
+        <v>2.868453202194402</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.566023445919427</v>
+        <v>0.8561088381061666</v>
       </c>
       <c r="C7">
-        <v>0.2812349313451676</v>
+        <v>0.2632217324628385</v>
       </c>
       <c r="D7">
-        <v>0.08950084601178787</v>
+        <v>0.2215431261325662</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5751035074915194</v>
+        <v>1.260655104275664</v>
       </c>
       <c r="G7">
-        <v>0.3524476122546076</v>
+        <v>0.658611013886329</v>
       </c>
       <c r="H7">
-        <v>0.3067930801092302</v>
+        <v>0.7773225806914255</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08711527459040469</v>
+        <v>0.2257064783178555</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1721540159500989</v>
+        <v>0.3233710540949986</v>
       </c>
       <c r="M7">
-        <v>0.2937065989116832</v>
+        <v>0.2470703912104355</v>
       </c>
       <c r="N7">
-        <v>0.8961824284143205</v>
+        <v>1.481894292460247</v>
       </c>
       <c r="O7">
-        <v>1.337614107137583</v>
+        <v>2.864253912031074</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.891659383919631</v>
+        <v>0.9518355205230762</v>
       </c>
       <c r="C8">
-        <v>0.3053735394834405</v>
+        <v>0.2712841287283396</v>
       </c>
       <c r="D8">
-        <v>0.09413088428121341</v>
+        <v>0.2214304082736405</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6003213820385866</v>
+        <v>1.254877080356572</v>
       </c>
       <c r="G8">
-        <v>0.3757528960771026</v>
+        <v>0.6570030400611842</v>
       </c>
       <c r="H8">
-        <v>0.3104955973001324</v>
+        <v>0.7715672284826809</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08340639626614199</v>
+        <v>0.2234921635973206</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1923386118337191</v>
+        <v>0.3270191132409863</v>
       </c>
       <c r="M8">
-        <v>0.3512288734771758</v>
+        <v>0.2628900535591754</v>
       </c>
       <c r="N8">
-        <v>0.8707508073850292</v>
+        <v>1.468562403113154</v>
       </c>
       <c r="O8">
-        <v>1.395239051191993</v>
+        <v>2.849155416834549</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.532299885475027</v>
+        <v>1.140600316245809</v>
       </c>
       <c r="C9">
-        <v>0.3526634074803354</v>
+        <v>0.2869961461368575</v>
       </c>
       <c r="D9">
-        <v>0.1038912593410615</v>
+        <v>0.2217390975996878</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6587883126358705</v>
+        <v>1.248570159641218</v>
       </c>
       <c r="G9">
-        <v>0.4283316186605504</v>
+        <v>0.6571527631309664</v>
       </c>
       <c r="H9">
-        <v>0.3220193646462519</v>
+        <v>0.7628617569975802</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07676436077568816</v>
+        <v>0.2195973594517786</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2330951055373021</v>
+        <v>0.3350204899314377</v>
       </c>
       <c r="M9">
-        <v>0.4648756349530174</v>
+        <v>0.2944574940046536</v>
       </c>
       <c r="N9">
-        <v>0.8288498745538675</v>
+        <v>1.446373447701042</v>
       </c>
       <c r="O9">
-        <v>1.531667956930534</v>
+        <v>2.831874731227686</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.005406143302594</v>
+        <v>1.279861539576586</v>
       </c>
       <c r="C10">
-        <v>0.387424899199118</v>
+        <v>0.2984733168020171</v>
       </c>
       <c r="D10">
-        <v>0.1115175355944089</v>
+        <v>0.2222859152077845</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7080278571418432</v>
+        <v>1.246993961458642</v>
       </c>
       <c r="G10">
-        <v>0.4718652734020594</v>
+        <v>0.659279082691242</v>
       </c>
       <c r="H10">
-        <v>0.3334014107130514</v>
+        <v>0.7580349270876354</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07228218685209198</v>
+        <v>0.2170072800279771</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2638808458534925</v>
+        <v>0.3414097630552817</v>
       </c>
       <c r="M10">
-        <v>0.5491202337823324</v>
+        <v>0.317970760300625</v>
       </c>
       <c r="N10">
-        <v>0.8033386533101279</v>
+        <v>1.432472997163615</v>
       </c>
       <c r="O10">
-        <v>1.648356098089664</v>
+        <v>2.826691157924529</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.221441436375642</v>
+        <v>1.343327907992091</v>
       </c>
       <c r="C11">
-        <v>0.403253991997417</v>
+        <v>0.3036788381735107</v>
       </c>
       <c r="D11">
-        <v>0.1150952316628135</v>
+        <v>0.2226035641045954</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.731977751366415</v>
+        <v>1.246939827195476</v>
       </c>
       <c r="G11">
-        <v>0.4929020001089981</v>
+        <v>0.6606848879796843</v>
       </c>
       <c r="H11">
-        <v>0.3392869737944295</v>
+        <v>0.7561789285696676</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07033248912123358</v>
+        <v>0.2158876361464247</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.278098726279211</v>
+        <v>0.3444260727443691</v>
       </c>
       <c r="M11">
-        <v>0.5876634203291076</v>
+        <v>0.3287348596375423</v>
       </c>
       <c r="N11">
-        <v>0.7929753367861991</v>
+        <v>1.426668982260317</v>
       </c>
       <c r="O11">
-        <v>1.705524134924389</v>
+        <v>2.825963991660416</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.303389889334085</v>
+        <v>1.367376279382825</v>
       </c>
       <c r="C12">
-        <v>0.4092513071970245</v>
+        <v>0.3056476708004823</v>
       </c>
       <c r="D12">
-        <v>0.1164664233250292</v>
+        <v>0.2227337030995713</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7412862466603229</v>
+        <v>1.247014542180466</v>
       </c>
       <c r="G12">
-        <v>0.5010601538523218</v>
+        <v>0.6612803191542156</v>
       </c>
       <c r="H12">
-        <v>0.3416240672881798</v>
+        <v>0.7555248915075623</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06960729653814318</v>
+        <v>0.2154720620747159</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2835159242314091</v>
+        <v>0.3455839390338014</v>
       </c>
       <c r="M12">
-        <v>0.6022951342051002</v>
+        <v>0.3328204435475257</v>
       </c>
       <c r="N12">
-        <v>0.7892382844696044</v>
+        <v>1.424545698697457</v>
       </c>
       <c r="O12">
-        <v>1.727804922711897</v>
+        <v>2.825923061851199</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.285734185644003</v>
+        <v>1.362196389221822</v>
       </c>
       <c r="C13">
-        <v>0.4079595214574567</v>
+        <v>0.3052237560380604</v>
       </c>
       <c r="D13">
-        <v>0.116170370243303</v>
+        <v>0.2227052380370296</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7392705886376518</v>
+        <v>1.246994218008496</v>
       </c>
       <c r="G13">
-        <v>0.4992943663463336</v>
+        <v>0.6611492764026963</v>
       </c>
       <c r="H13">
-        <v>0.3411158039601077</v>
+        <v>0.7556635812312464</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06976289182029072</v>
+        <v>0.2155611895575169</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2823477154051375</v>
+        <v>0.3453338776629096</v>
       </c>
       <c r="M13">
-        <v>0.599142243658406</v>
+        <v>0.3319401242326308</v>
       </c>
       <c r="N13">
-        <v>0.7900346502847526</v>
+        <v>1.424999671014547</v>
       </c>
       <c r="O13">
-        <v>1.722977480468558</v>
+        <v>2.82592145175056</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.228180429225915</v>
+        <v>1.34530608986006</v>
       </c>
       <c r="C14">
-        <v>0.4037473255573616</v>
+        <v>0.3038408639190209</v>
       </c>
       <c r="D14">
-        <v>0.1152077070890059</v>
+        <v>0.2226140735804023</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7327386766880224</v>
+        <v>1.246944066422991</v>
       </c>
       <c r="G14">
-        <v>0.4935692408938905</v>
+        <v>0.6607326100522073</v>
       </c>
       <c r="H14">
-        <v>0.3394770370722853</v>
+        <v>0.7561241431170203</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07027256258507497</v>
+        <v>0.2158532781400154</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2785437220894522</v>
+        <v>0.3445210181097451</v>
       </c>
       <c r="M14">
-        <v>0.5888664261675558</v>
+        <v>0.3290707953247747</v>
       </c>
       <c r="N14">
-        <v>0.7926640813995007</v>
+        <v>1.426492804570259</v>
       </c>
       <c r="O14">
-        <v>1.707344245241245</v>
+        <v>2.825955926460949</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.192946113137793</v>
+        <v>1.334962204113708</v>
       </c>
       <c r="C15">
-        <v>0.4011676761679439</v>
+        <v>0.3029934872921842</v>
       </c>
       <c r="D15">
-        <v>0.1146202078243661</v>
+        <v>0.2225595141328824</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7287693400048525</v>
+        <v>1.246925743648795</v>
       </c>
       <c r="G15">
-        <v>0.4900878922444178</v>
+        <v>0.6604856058375503</v>
       </c>
       <c r="H15">
-        <v>0.3384875587405389</v>
+        <v>0.7564126024070532</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07058646721228523</v>
+        <v>0.2160332857098459</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2762180670549412</v>
+        <v>0.3440251529831215</v>
       </c>
       <c r="M15">
-        <v>0.582577054304231</v>
+        <v>0.3273144708120981</v>
       </c>
       <c r="N15">
-        <v>0.7942993452317992</v>
+        <v>1.427417100006956</v>
       </c>
       <c r="O15">
-        <v>1.697852187992424</v>
+        <v>2.826007570670953</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.991306104360319</v>
+        <v>1.275716054610598</v>
       </c>
       <c r="C16">
-        <v>0.3863908254331676</v>
+        <v>0.2981327984429214</v>
       </c>
       <c r="D16">
-        <v>0.1112859745620369</v>
+        <v>0.2222665377954485</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7064952408323606</v>
+        <v>1.247010829031325</v>
       </c>
       <c r="G16">
-        <v>0.4705165211016293</v>
+        <v>0.6591960363745244</v>
       </c>
       <c r="H16">
-        <v>0.3330315711413192</v>
+        <v>0.7581630519254929</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07241142400795292</v>
+        <v>0.2170816291832354</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2629561779773582</v>
+        <v>0.3412148381154765</v>
       </c>
       <c r="M16">
-        <v>0.5466061587860764</v>
+        <v>0.3172686400289209</v>
       </c>
       <c r="N16">
-        <v>0.8040416447336369</v>
+        <v>1.432862744419175</v>
       </c>
       <c r="O16">
-        <v>1.644706030859567</v>
+        <v>2.826771490004063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.867831637984466</v>
+        <v>1.239398959795324</v>
       </c>
       <c r="C17">
-        <v>0.377330391603337</v>
+        <v>0.2951468416997614</v>
       </c>
       <c r="D17">
-        <v>0.1092688648062605</v>
+        <v>0.2221044135568349</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6932391747263367</v>
+        <v>1.247232730794373</v>
       </c>
       <c r="G17">
-        <v>0.4588361014632198</v>
+        <v>0.6585172624640023</v>
       </c>
       <c r="H17">
-        <v>0.3298703383413226</v>
+        <v>0.7593238669962545</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07355403348593947</v>
+        <v>0.2177397509100277</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2548768129055503</v>
+        <v>0.3395188277016103</v>
       </c>
       <c r="M17">
-        <v>0.5245986900982444</v>
+        <v>0.3111230018917581</v>
       </c>
       <c r="N17">
-        <v>0.8103423544492543</v>
+        <v>1.436336411757154</v>
       </c>
       <c r="O17">
-        <v>1.613180210004771</v>
+        <v>2.827657774666932</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.79688779942478</v>
+        <v>1.218521317369209</v>
       </c>
       <c r="C18">
-        <v>0.3721205094453239</v>
+        <v>0.2934279486281923</v>
       </c>
       <c r="D18">
-        <v>0.1081188353543965</v>
+        <v>0.2220176523692743</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6857595559542844</v>
+        <v>1.247422763299355</v>
       </c>
       <c r="G18">
-        <v>0.4522329614734701</v>
+        <v>0.6581681250644209</v>
       </c>
       <c r="H18">
-        <v>0.3281182862628214</v>
+        <v>0.7600235200217043</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07421961683949119</v>
+        <v>0.2181238013800845</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2502496913582775</v>
+        <v>0.3385536699807403</v>
       </c>
       <c r="M18">
-        <v>0.511960978183069</v>
+        <v>0.3075945923899184</v>
       </c>
       <c r="N18">
-        <v>0.8140826937373262</v>
+        <v>1.438383265437317</v>
       </c>
       <c r="O18">
-        <v>1.595429136403482</v>
+        <v>2.828321052299685</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.772879708905919</v>
+        <v>1.21145444293694</v>
       </c>
       <c r="C19">
-        <v>0.3703567542941926</v>
+        <v>0.2928457167487437</v>
       </c>
       <c r="D19">
-        <v>0.1077311763205131</v>
+        <v>0.2219893925950771</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6832514974516855</v>
+        <v>1.247497825654357</v>
       </c>
       <c r="G19">
-        <v>0.4500165922164996</v>
+        <v>0.6580570015141944</v>
       </c>
       <c r="H19">
-        <v>0.327536248638836</v>
+        <v>0.7602659056348529</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07444640369783373</v>
+        <v>0.2182547821622208</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2486863737544667</v>
+        <v>0.3382286645817629</v>
       </c>
       <c r="M19">
-        <v>0.5076854344352881</v>
+        <v>0.3064010416173915</v>
       </c>
       <c r="N19">
-        <v>0.8153688316889074</v>
+        <v>1.439084695720574</v>
       </c>
       <c r="O19">
-        <v>1.589483168975335</v>
+        <v>2.828571994760836</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.880967739067444</v>
+        <v>1.243263850769381</v>
       </c>
       <c r="C20">
-        <v>0.3782947350427577</v>
+        <v>0.2954648530671591</v>
       </c>
       <c r="D20">
-        <v>0.1094825325538196</v>
+        <v>0.2221210008367152</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6946351925926919</v>
+        <v>1.24720265153524</v>
       </c>
       <c r="G20">
-        <v>0.4600674831879417</v>
+        <v>0.6585852470868332</v>
       </c>
       <c r="H20">
-        <v>0.33019995862999</v>
+        <v>0.7591969866210349</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07343153100183997</v>
+        <v>0.2176691219281097</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2557347961608798</v>
+        <v>0.3396983014512074</v>
       </c>
       <c r="M20">
-        <v>0.5269392787022511</v>
+        <v>0.3117765554341219</v>
       </c>
       <c r="N20">
-        <v>0.8096595310087054</v>
+        <v>1.435961574625473</v>
       </c>
       <c r="O20">
-        <v>1.616496361726973</v>
+        <v>2.827547541031521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.245081354913282</v>
+        <v>1.350266784970188</v>
       </c>
       <c r="C21">
-        <v>0.4049844557263498</v>
+        <v>0.3042471188364573</v>
       </c>
       <c r="D21">
-        <v>0.1154900130194179</v>
+        <v>0.2226405838442602</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7346506317889023</v>
+        <v>1.246956213929536</v>
       </c>
       <c r="G21">
-        <v>0.4952455164869605</v>
+        <v>0.6608532828228988</v>
       </c>
       <c r="H21">
-        <v>0.3399553873446877</v>
+        <v>0.755987541328409</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07012250167816186</v>
+        <v>0.2157672564980712</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2796601252941997</v>
+        <v>0.3447593508478661</v>
       </c>
       <c r="M21">
-        <v>0.5918836606808497</v>
+        <v>0.3299133325814907</v>
       </c>
       <c r="N21">
-        <v>0.7918865980265295</v>
+        <v>1.426052212106256</v>
       </c>
       <c r="O21">
-        <v>1.711918567623655</v>
+        <v>2.825939438663312</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.483881983687752</v>
+        <v>1.420286278860601</v>
       </c>
       <c r="C22">
-        <v>0.4224467497832052</v>
+        <v>0.3099728613971138</v>
       </c>
       <c r="D22">
-        <v>0.1195122205820525</v>
+        <v>0.2230375622318661</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7622054753325358</v>
+        <v>1.247350084814826</v>
       </c>
       <c r="G22">
-        <v>0.5193630201170549</v>
+        <v>0.6627032823370342</v>
       </c>
       <c r="H22">
-        <v>0.3469660755048238</v>
+        <v>0.7541743338944826</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06803644730596603</v>
+        <v>0.2145732949017085</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2954914895711624</v>
+        <v>0.3481582282709468</v>
       </c>
       <c r="M22">
-        <v>0.634542219843965</v>
+        <v>0.3418217276450548</v>
       </c>
       <c r="N22">
-        <v>0.7813671773242348</v>
+        <v>1.420010477045537</v>
       </c>
       <c r="O22">
-        <v>1.777992062970611</v>
+        <v>2.826254860592201</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.356345448955665</v>
+        <v>1.382908137620859</v>
       </c>
       <c r="C23">
-        <v>0.4131247374232885</v>
+        <v>0.3069182551411984</v>
       </c>
       <c r="D23">
-        <v>0.1173564351359246</v>
+        <v>0.2228204534667739</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7473649902490251</v>
+        <v>1.24708912801124</v>
       </c>
       <c r="G23">
-        <v>0.5063828707622946</v>
+        <v>0.6616822503153656</v>
       </c>
       <c r="H23">
-        <v>0.3431639587131343</v>
+        <v>0.7551160806526553</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06914271010040079</v>
+        <v>0.2152060545918655</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2870232928058272</v>
+        <v>0.3463358836746693</v>
       </c>
       <c r="M23">
-        <v>0.6117533807854798</v>
+        <v>0.3354610617128202</v>
       </c>
       <c r="N23">
-        <v>0.7868782648209844</v>
+        <v>1.423195334900399</v>
       </c>
       <c r="O23">
-        <v>1.742372378316986</v>
+        <v>2.825961515917015</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.875028774696318</v>
+        <v>1.241516528641853</v>
       </c>
       <c r="C24">
-        <v>0.3778587582996948</v>
+        <v>0.2953210870529261</v>
       </c>
       <c r="D24">
-        <v>0.1093859034177314</v>
+        <v>0.2221134816449961</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6940036134820673</v>
+        <v>1.247216055808032</v>
       </c>
       <c r="G24">
-        <v>0.459510427478719</v>
+        <v>0.6585543832210874</v>
       </c>
       <c r="H24">
-        <v>0.3300507341371599</v>
+        <v>0.7592542486677729</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07348688735355374</v>
+        <v>0.2177010355734024</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2553468466363285</v>
+        <v>0.3396171305178513</v>
       </c>
       <c r="M24">
-        <v>0.5258810532307834</v>
+        <v>0.31148106890452</v>
       </c>
       <c r="N24">
-        <v>0.8099678686676199</v>
+        <v>1.436130883372556</v>
       </c>
       <c r="O24">
-        <v>1.614995969402059</v>
+        <v>2.827596898760135</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.358652319564783</v>
+        <v>1.089428907602496</v>
       </c>
       <c r="C25">
-        <v>0.3398706849893927</v>
+        <v>0.2827568296088856</v>
       </c>
       <c r="D25">
-        <v>0.1011738986922239</v>
+        <v>0.2215991793793251</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.641927624756633</v>
+        <v>1.249739047788395</v>
       </c>
       <c r="G25">
-        <v>0.4133003916630429</v>
+        <v>0.6567583672940316</v>
       </c>
       <c r="H25">
-        <v>0.3184138860253114</v>
+        <v>0.7649409667448737</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07849234092771623</v>
+        <v>0.2206032437394174</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2219310984119716</v>
+        <v>0.3327657934384547</v>
       </c>
       <c r="M25">
-        <v>0.4340174947604467</v>
+        <v>0.2858605113060335</v>
       </c>
       <c r="N25">
-        <v>0.839290567367982</v>
+        <v>1.451953721668161</v>
       </c>
       <c r="O25">
-        <v>1.492035487422243</v>
+        <v>2.835230139778417</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.977845674447849</v>
+        <v>1.979989834080357</v>
       </c>
       <c r="C2">
-        <v>0.2734622245895366</v>
+        <v>0.311909234208926</v>
       </c>
       <c r="D2">
-        <v>0.2214358252317083</v>
+        <v>0.09543005083975942</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.253651696097307</v>
+        <v>0.6077364812825721</v>
       </c>
       <c r="G2">
-        <v>0.6567907814089722</v>
+        <v>0.3825078370240789</v>
       </c>
       <c r="H2">
-        <v>0.7701826252495749</v>
+        <v>0.3117761717542464</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2229225274845356</v>
+        <v>0.08244372085304363</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3280651365297373</v>
+        <v>0.1978826985183773</v>
       </c>
       <c r="M2">
-        <v>0.26721371665883</v>
+        <v>0.3668636407635759</v>
       </c>
       <c r="N2">
-        <v>1.465218122115189</v>
+        <v>0.8643849570424607</v>
       </c>
       <c r="O2">
-        <v>2.845898825768586</v>
+        <v>1.412361509454058</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9024912028600625</v>
+        <v>1.72393795852858</v>
       </c>
       <c r="C3">
-        <v>0.2671379641161451</v>
+        <v>0.2929495688115793</v>
       </c>
       <c r="D3">
-        <v>0.2214603815762857</v>
+        <v>0.09171277208059792</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.257586859865661</v>
+        <v>0.5868943065814634</v>
       </c>
       <c r="G3">
-        <v>0.6576568856440375</v>
+        <v>0.3634201136857413</v>
       </c>
       <c r="H3">
-        <v>0.774394196528057</v>
+        <v>0.3083773732316288</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2246085862268781</v>
+        <v>0.08528323465113652</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3250958909660824</v>
+        <v>0.1818894006098617</v>
       </c>
       <c r="M3">
-        <v>0.2547157732088507</v>
+        <v>0.3215773383054454</v>
       </c>
       <c r="N3">
-        <v>1.475217591408736</v>
+        <v>0.8834412449697808</v>
       </c>
       <c r="O3">
-        <v>2.856278980734061</v>
+        <v>1.364422999438219</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8563620134113137</v>
+        <v>1.566886301478064</v>
       </c>
       <c r="C4">
-        <v>0.2632431640283812</v>
+        <v>0.2812989867404809</v>
       </c>
       <c r="D4">
-        <v>0.2215425151552211</v>
+        <v>0.0895127459493068</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.260636837119307</v>
+        <v>0.575165523332366</v>
       </c>
       <c r="G4">
-        <v>0.6586048167407554</v>
+        <v>0.3525057667902587</v>
       </c>
       <c r="H4">
-        <v>0.7773058055078863</v>
+        <v>0.306800572502226</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2257003439741544</v>
+        <v>0.0871050777756166</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3233802269507819</v>
+        <v>0.1722069167192117</v>
       </c>
       <c r="M4">
-        <v>0.247112011517153</v>
+        <v>0.2938587522846916</v>
       </c>
       <c r="N4">
-        <v>1.481856619471635</v>
+        <v>0.8961105508383582</v>
       </c>
       <c r="O4">
-        <v>2.864206653534254</v>
+        <v>1.337754363250582</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8376003736272821</v>
+        <v>1.50291286791122</v>
       </c>
       <c r="C5">
-        <v>0.2616532101689586</v>
+        <v>0.2765484401837597</v>
       </c>
       <c r="D5">
-        <v>0.2215929034100057</v>
+        <v>0.08863637499039356</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.262039229308023</v>
+        <v>0.570643282674034</v>
       </c>
       <c r="G5">
-        <v>0.6590957436239648</v>
+        <v>0.3482504352376594</v>
       </c>
       <c r="H5">
-        <v>0.7785742903925978</v>
+        <v>0.3062817251084482</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2261594737772035</v>
+        <v>0.08786699831836653</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3227082335410643</v>
+        <v>0.1682940723530422</v>
       </c>
       <c r="M5">
-        <v>0.2440313022478122</v>
+        <v>0.2825821086055882</v>
       </c>
       <c r="N5">
-        <v>1.484687795938697</v>
+        <v>0.901510949931513</v>
       </c>
       <c r="O5">
-        <v>2.867828224232611</v>
+        <v>1.327550954531645</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8344872586376084</v>
+        <v>1.49229129592311</v>
       </c>
       <c r="C6">
-        <v>0.261389035244548</v>
+        <v>0.2757594300811803</v>
       </c>
       <c r="D6">
-        <v>0.2216022938152022</v>
+        <v>0.08849205575564412</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.262281732938028</v>
+        <v>0.5699075884024936</v>
       </c>
       <c r="G6">
-        <v>0.6591835813631377</v>
+        <v>0.3475551678557594</v>
       </c>
       <c r="H6">
-        <v>0.7787898752366331</v>
+        <v>0.3062029134621795</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2262365719431894</v>
+        <v>0.0879946868938617</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3225982934041838</v>
+        <v>0.1676462826854461</v>
       </c>
       <c r="M6">
-        <v>0.2435208411968901</v>
+        <v>0.2807106858918331</v>
       </c>
       <c r="N6">
-        <v>1.485165508562183</v>
+        <v>0.9024218589201496</v>
       </c>
       <c r="O6">
-        <v>2.868453202194402</v>
+        <v>1.325895920010922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8561088381061666</v>
+        <v>1.566023445919399</v>
       </c>
       <c r="C7">
-        <v>0.2632217324628385</v>
+        <v>0.2812349313451534</v>
       </c>
       <c r="D7">
-        <v>0.2215431261325662</v>
+        <v>0.08950084601174524</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.260655104275664</v>
+        <v>0.5751035074915336</v>
       </c>
       <c r="G7">
-        <v>0.658611013886329</v>
+        <v>0.3524476122546929</v>
       </c>
       <c r="H7">
-        <v>0.7773225806914255</v>
+        <v>0.3067930801092302</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2257064783178555</v>
+        <v>0.0871152745903454</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3233710540949986</v>
+        <v>0.1721540159501274</v>
       </c>
       <c r="M7">
-        <v>0.2470703912104355</v>
+        <v>0.2937065989116761</v>
       </c>
       <c r="N7">
-        <v>1.481894292460247</v>
+        <v>0.8961824284143205</v>
       </c>
       <c r="O7">
-        <v>2.864253912031074</v>
+        <v>1.337614107137583</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9518355205230762</v>
+        <v>1.891659383919716</v>
       </c>
       <c r="C8">
-        <v>0.2712841287283396</v>
+        <v>0.3053735394835115</v>
       </c>
       <c r="D8">
-        <v>0.2214304082736405</v>
+        <v>0.09413088428124894</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.254877080356572</v>
+        <v>0.6003213820385653</v>
       </c>
       <c r="G8">
-        <v>0.6570030400611842</v>
+        <v>0.3757528960771168</v>
       </c>
       <c r="H8">
-        <v>0.7715672284826809</v>
+        <v>0.3104955973001324</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2234921635973206</v>
+        <v>0.08340639626602742</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3270191132409863</v>
+        <v>0.1923386118337262</v>
       </c>
       <c r="M8">
-        <v>0.2628900535591754</v>
+        <v>0.3512288734771687</v>
       </c>
       <c r="N8">
-        <v>1.468562403113154</v>
+        <v>0.8707508073851074</v>
       </c>
       <c r="O8">
-        <v>2.849155416834549</v>
+        <v>1.39523905119205</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.140600316245809</v>
+        <v>2.532299885474799</v>
       </c>
       <c r="C9">
-        <v>0.2869961461368575</v>
+        <v>0.3526634074801649</v>
       </c>
       <c r="D9">
-        <v>0.2217390975996878</v>
+        <v>0.1038912593410615</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.248570159641218</v>
+        <v>0.6587883126358776</v>
       </c>
       <c r="G9">
-        <v>0.6571527631309664</v>
+        <v>0.4283316186606214</v>
       </c>
       <c r="H9">
-        <v>0.7628617569975802</v>
+        <v>0.3220193646462519</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2195973594517786</v>
+        <v>0.07676436077556864</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3350204899314377</v>
+        <v>0.2330951055372594</v>
       </c>
       <c r="M9">
-        <v>0.2944574940046536</v>
+        <v>0.4648756349529961</v>
       </c>
       <c r="N9">
-        <v>1.446373447701042</v>
+        <v>0.8288498745538675</v>
       </c>
       <c r="O9">
-        <v>2.831874731227686</v>
+        <v>1.531667956930534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.279861539576586</v>
+        <v>3.005406143302594</v>
       </c>
       <c r="C10">
-        <v>0.2984733168020171</v>
+        <v>0.3874248991991038</v>
       </c>
       <c r="D10">
-        <v>0.2222859152077845</v>
+        <v>0.1115175355945155</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.246993961458642</v>
+        <v>0.7080278571418432</v>
       </c>
       <c r="G10">
-        <v>0.659279082691242</v>
+        <v>0.4718652734019884</v>
       </c>
       <c r="H10">
-        <v>0.7580349270876354</v>
+        <v>0.3334014107131935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2170072800279771</v>
+        <v>0.07228218685214466</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3414097630552817</v>
+        <v>0.2638808458535351</v>
       </c>
       <c r="M10">
-        <v>0.317970760300625</v>
+        <v>0.5491202337823395</v>
       </c>
       <c r="N10">
-        <v>1.432472997163615</v>
+        <v>0.8033386533101137</v>
       </c>
       <c r="O10">
-        <v>2.826691157924529</v>
+        <v>1.648356098089664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.343327907992091</v>
+        <v>3.221441436375812</v>
       </c>
       <c r="C11">
-        <v>0.3036788381735107</v>
+        <v>0.4032539919976728</v>
       </c>
       <c r="D11">
-        <v>0.2226035641045954</v>
+        <v>0.1150952316628135</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.246939827195476</v>
+        <v>0.731977751366415</v>
       </c>
       <c r="G11">
-        <v>0.6606848879796843</v>
+        <v>0.4929020001089697</v>
       </c>
       <c r="H11">
-        <v>0.7561789285696676</v>
+        <v>0.3392869737944295</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2158876361464247</v>
+        <v>0.07033248912112511</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3444260727443691</v>
+        <v>0.278098726279282</v>
       </c>
       <c r="M11">
-        <v>0.3287348596375423</v>
+        <v>0.5876634203291076</v>
       </c>
       <c r="N11">
-        <v>1.426668982260317</v>
+        <v>0.7929753367862133</v>
       </c>
       <c r="O11">
-        <v>2.825963991660416</v>
+        <v>1.705524134924445</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.367376279382825</v>
+        <v>3.303389889333971</v>
       </c>
       <c r="C12">
-        <v>0.3056476708004823</v>
+        <v>0.4092513071972803</v>
       </c>
       <c r="D12">
-        <v>0.2227337030995713</v>
+        <v>0.1164664233249084</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.247014542180466</v>
+        <v>0.7412862466603229</v>
       </c>
       <c r="G12">
-        <v>0.6612803191542156</v>
+        <v>0.5010601538523218</v>
       </c>
       <c r="H12">
-        <v>0.7555248915075623</v>
+        <v>0.3416240672882935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2154720620747159</v>
+        <v>0.06960729653814207</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3455839390338014</v>
+        <v>0.2835159242314091</v>
       </c>
       <c r="M12">
-        <v>0.3328204435475257</v>
+        <v>0.6022951342051215</v>
       </c>
       <c r="N12">
-        <v>1.424545698697457</v>
+        <v>0.7892382844695547</v>
       </c>
       <c r="O12">
-        <v>2.825923061851199</v>
+        <v>1.727804922711897</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.362196389221822</v>
+        <v>3.285734185643946</v>
       </c>
       <c r="C13">
-        <v>0.3052237560380604</v>
+        <v>0.4079595214575704</v>
       </c>
       <c r="D13">
-        <v>0.2227052380370296</v>
+        <v>0.116170370243367</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.246994218008496</v>
+        <v>0.7392705886376518</v>
       </c>
       <c r="G13">
-        <v>0.6611492764026963</v>
+        <v>0.4992943663464047</v>
       </c>
       <c r="H13">
-        <v>0.7556635812312464</v>
+        <v>0.3411158039601219</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2155611895575169</v>
+        <v>0.06976289182024747</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3453338776629096</v>
+        <v>0.2823477154051233</v>
       </c>
       <c r="M13">
-        <v>0.3319401242326308</v>
+        <v>0.5991422436583846</v>
       </c>
       <c r="N13">
-        <v>1.424999671014547</v>
+        <v>0.7900346502847384</v>
       </c>
       <c r="O13">
-        <v>2.82592145175056</v>
+        <v>1.722977480468586</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.34530608986006</v>
+        <v>3.228180429225858</v>
       </c>
       <c r="C14">
-        <v>0.3038408639190209</v>
+        <v>0.4037473255573616</v>
       </c>
       <c r="D14">
-        <v>0.2226140735804023</v>
+        <v>0.1152077070890485</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.246944066422991</v>
+        <v>0.7327386766880082</v>
       </c>
       <c r="G14">
-        <v>0.6607326100522073</v>
+        <v>0.4935692408939474</v>
       </c>
       <c r="H14">
-        <v>0.7561241431170203</v>
+        <v>0.3394770370723847</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2158532781400154</v>
+        <v>0.07027256258507197</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3445210181097451</v>
+        <v>0.2785437220894522</v>
       </c>
       <c r="M14">
-        <v>0.3290707953247747</v>
+        <v>0.5888664261675416</v>
       </c>
       <c r="N14">
-        <v>1.426492804570259</v>
+        <v>0.7926640813995078</v>
       </c>
       <c r="O14">
-        <v>2.825955926460949</v>
+        <v>1.707344245241273</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.334962204113708</v>
+        <v>3.19294611313768</v>
       </c>
       <c r="C15">
-        <v>0.3029934872921842</v>
+        <v>0.4011676761679723</v>
       </c>
       <c r="D15">
-        <v>0.2225595141328824</v>
+        <v>0.1146202078242382</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.246925743648795</v>
+        <v>0.7287693400048383</v>
       </c>
       <c r="G15">
-        <v>0.6604856058375503</v>
+        <v>0.4900878922445173</v>
       </c>
       <c r="H15">
-        <v>0.7564126024070532</v>
+        <v>0.3384875587405389</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2160332857098459</v>
+        <v>0.07058646721230805</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3440251529831215</v>
+        <v>0.2762180670550407</v>
       </c>
       <c r="M15">
-        <v>0.3273144708120981</v>
+        <v>0.5825770543042381</v>
       </c>
       <c r="N15">
-        <v>1.427417100006956</v>
+        <v>0.794299345231785</v>
       </c>
       <c r="O15">
-        <v>2.826007570670953</v>
+        <v>1.697852187992453</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.275716054610598</v>
+        <v>2.991306104360319</v>
       </c>
       <c r="C16">
-        <v>0.2981327984429214</v>
+        <v>0.386390825433395</v>
       </c>
       <c r="D16">
-        <v>0.2222665377954485</v>
+        <v>0.1112859745619232</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.247010829031325</v>
+        <v>0.7064952408323748</v>
       </c>
       <c r="G16">
-        <v>0.6591960363745244</v>
+        <v>0.4705165211015583</v>
       </c>
       <c r="H16">
-        <v>0.7581630519254929</v>
+        <v>0.333031571141305</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2170816291832354</v>
+        <v>0.07241142400797262</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3412148381154765</v>
+        <v>0.2629561779773439</v>
       </c>
       <c r="M16">
-        <v>0.3172686400289209</v>
+        <v>0.5466061587860835</v>
       </c>
       <c r="N16">
-        <v>1.432862744419175</v>
+        <v>0.8040416447336227</v>
       </c>
       <c r="O16">
-        <v>2.826771490004063</v>
+        <v>1.644706030859595</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.239398959795324</v>
+        <v>2.867831637984182</v>
       </c>
       <c r="C17">
-        <v>0.2951468416997614</v>
+        <v>0.3773303916033228</v>
       </c>
       <c r="D17">
-        <v>0.2221044135568349</v>
+        <v>0.1092688648063174</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.247232730794373</v>
+        <v>0.6932391747263367</v>
       </c>
       <c r="G17">
-        <v>0.6585172624640023</v>
+        <v>0.4588361014631914</v>
       </c>
       <c r="H17">
-        <v>0.7593238669962545</v>
+        <v>0.3298703383412089</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2177397509100277</v>
+        <v>0.07355403348606065</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3395188277016103</v>
+        <v>0.2548768129055645</v>
       </c>
       <c r="M17">
-        <v>0.3111230018917581</v>
+        <v>0.5245986900982373</v>
       </c>
       <c r="N17">
-        <v>1.436336411757154</v>
+        <v>0.8103423544492543</v>
       </c>
       <c r="O17">
-        <v>2.827657774666932</v>
+        <v>1.613180210004771</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.218521317369209</v>
+        <v>2.79688779942478</v>
       </c>
       <c r="C18">
-        <v>0.2934279486281923</v>
+        <v>0.3721205094452387</v>
       </c>
       <c r="D18">
-        <v>0.2220176523692743</v>
+        <v>0.1081188353542615</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.247422763299355</v>
+        <v>0.6857595559542844</v>
       </c>
       <c r="G18">
-        <v>0.6581681250644209</v>
+        <v>0.4522329614734701</v>
       </c>
       <c r="H18">
-        <v>0.7600235200217043</v>
+        <v>0.3281182862627077</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2181238013800845</v>
+        <v>0.07421961683944739</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3385536699807403</v>
+        <v>0.2502496913582206</v>
       </c>
       <c r="M18">
-        <v>0.3075945923899184</v>
+        <v>0.5119609781830476</v>
       </c>
       <c r="N18">
-        <v>1.438383265437317</v>
+        <v>0.814082693737312</v>
       </c>
       <c r="O18">
-        <v>2.828321052299685</v>
+        <v>1.595429136403567</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.21145444293694</v>
+        <v>2.772879708905862</v>
       </c>
       <c r="C19">
-        <v>0.2928457167487437</v>
+        <v>0.370356754293951</v>
       </c>
       <c r="D19">
-        <v>0.2219893925950771</v>
+        <v>0.1077311763203923</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.247497825654357</v>
+        <v>0.6832514974516855</v>
       </c>
       <c r="G19">
-        <v>0.6580570015141944</v>
+        <v>0.4500165922165138</v>
       </c>
       <c r="H19">
-        <v>0.7602659056348529</v>
+        <v>0.327536248638836</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2182547821622208</v>
+        <v>0.07444640369795424</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3382286645817629</v>
+        <v>0.2486863737543672</v>
       </c>
       <c r="M19">
-        <v>0.3064010416173915</v>
+        <v>0.5076854344352952</v>
       </c>
       <c r="N19">
-        <v>1.439084695720574</v>
+        <v>0.8153688316888434</v>
       </c>
       <c r="O19">
-        <v>2.828571994760836</v>
+        <v>1.589483168975335</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.243263850769381</v>
+        <v>2.880967739067273</v>
       </c>
       <c r="C20">
-        <v>0.2954648530671591</v>
+        <v>0.3782947350426582</v>
       </c>
       <c r="D20">
-        <v>0.2221210008367152</v>
+        <v>0.1094825325539261</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.24720265153524</v>
+        <v>0.694635192592699</v>
       </c>
       <c r="G20">
-        <v>0.6585852470868332</v>
+        <v>0.4600674831880127</v>
       </c>
       <c r="H20">
-        <v>0.7591969866210349</v>
+        <v>0.3301999586298763</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2176691219281097</v>
+        <v>0.07343153100180033</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3396983014512074</v>
+        <v>0.2557347961608372</v>
       </c>
       <c r="M20">
-        <v>0.3117765554341219</v>
+        <v>0.5269392787022582</v>
       </c>
       <c r="N20">
-        <v>1.435961574625473</v>
+        <v>0.8096595310086983</v>
       </c>
       <c r="O20">
-        <v>2.827547541031521</v>
+        <v>1.61649636172703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.350266784970188</v>
+        <v>3.245081354913395</v>
       </c>
       <c r="C21">
-        <v>0.3042471188364573</v>
+        <v>0.4049844557263214</v>
       </c>
       <c r="D21">
-        <v>0.2226405838442602</v>
+        <v>0.1154900130191834</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.246956213929536</v>
+        <v>0.7346506317888881</v>
       </c>
       <c r="G21">
-        <v>0.6608532828228988</v>
+        <v>0.4952455164869605</v>
       </c>
       <c r="H21">
-        <v>0.755987541328409</v>
+        <v>0.3399553873446877</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2157672564980712</v>
+        <v>0.07012250167804135</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3447593508478661</v>
+        <v>0.2796601252942281</v>
       </c>
       <c r="M21">
-        <v>0.3299133325814907</v>
+        <v>0.5918836606808497</v>
       </c>
       <c r="N21">
-        <v>1.426052212106256</v>
+        <v>0.791886598026565</v>
       </c>
       <c r="O21">
-        <v>2.825939438663312</v>
+        <v>1.711918567623741</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.420286278860601</v>
+        <v>3.483881983687752</v>
       </c>
       <c r="C22">
-        <v>0.3099728613971138</v>
+        <v>0.4224467497835462</v>
       </c>
       <c r="D22">
-        <v>0.2230375622318661</v>
+        <v>0.1195122205821804</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.247350084814826</v>
+        <v>0.7622054753325358</v>
       </c>
       <c r="G22">
-        <v>0.6627032823370342</v>
+        <v>0.5193630201170123</v>
       </c>
       <c r="H22">
-        <v>0.7541743338944826</v>
+        <v>0.3469660755048096</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2145732949017085</v>
+        <v>0.06803644730591807</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3481582282709468</v>
+        <v>0.2954914895712619</v>
       </c>
       <c r="M22">
-        <v>0.3418217276450548</v>
+        <v>0.6345422198439792</v>
       </c>
       <c r="N22">
-        <v>1.420010477045537</v>
+        <v>0.7813671773242064</v>
       </c>
       <c r="O22">
-        <v>2.826254860592201</v>
+        <v>1.777992062970611</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.382908137620859</v>
+        <v>3.356345448955551</v>
       </c>
       <c r="C23">
-        <v>0.3069182551411984</v>
+        <v>0.4131247374232032</v>
       </c>
       <c r="D23">
-        <v>0.2228204534667739</v>
+        <v>0.1173564351360312</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.24708912801124</v>
+        <v>0.7473649902490394</v>
       </c>
       <c r="G23">
-        <v>0.6616822503153656</v>
+        <v>0.506382870762252</v>
       </c>
       <c r="H23">
-        <v>0.7551160806526553</v>
+        <v>0.3431639587131343</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2152060545918655</v>
+        <v>0.06914271010047918</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3463358836746693</v>
+        <v>0.287023292805813</v>
       </c>
       <c r="M23">
-        <v>0.3354610617128202</v>
+        <v>0.6117533807854514</v>
       </c>
       <c r="N23">
-        <v>1.423195334900399</v>
+        <v>0.7868782648210342</v>
       </c>
       <c r="O23">
-        <v>2.825961515917015</v>
+        <v>1.742372378316986</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.241516528641853</v>
+        <v>2.875028774696545</v>
       </c>
       <c r="C24">
-        <v>0.2953210870529261</v>
+        <v>0.3778587582997233</v>
       </c>
       <c r="D24">
-        <v>0.2221134816449961</v>
+        <v>0.1093859034177811</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.247216055808032</v>
+        <v>0.6940036134820744</v>
       </c>
       <c r="G24">
-        <v>0.6585543832210874</v>
+        <v>0.4595104274786621</v>
       </c>
       <c r="H24">
-        <v>0.7592542486677729</v>
+        <v>0.3300507341371741</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2177010355734024</v>
+        <v>0.07348688735360481</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3396171305178513</v>
+        <v>0.2553468466362858</v>
       </c>
       <c r="M24">
-        <v>0.31148106890452</v>
+        <v>0.5258810532307905</v>
       </c>
       <c r="N24">
-        <v>1.436130883372556</v>
+        <v>0.809967868667627</v>
       </c>
       <c r="O24">
-        <v>2.827596898760135</v>
+        <v>1.614995969402031</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.089428907602496</v>
+        <v>2.358652319564783</v>
       </c>
       <c r="C25">
-        <v>0.2827568296088856</v>
+        <v>0.3398706849891511</v>
       </c>
       <c r="D25">
-        <v>0.2215991793793251</v>
+        <v>0.1011738986920534</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.249739047788395</v>
+        <v>0.641927624756633</v>
       </c>
       <c r="G25">
-        <v>0.6567583672940316</v>
+        <v>0.4133003916630429</v>
       </c>
       <c r="H25">
-        <v>0.7649409667448737</v>
+        <v>0.3184138860254251</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2206032437394174</v>
+        <v>0.07849234092785479</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3327657934384547</v>
+        <v>0.2219310984119574</v>
       </c>
       <c r="M25">
-        <v>0.2858605113060335</v>
+        <v>0.4340174947604325</v>
       </c>
       <c r="N25">
-        <v>1.451953721668161</v>
+        <v>0.839290567368046</v>
       </c>
       <c r="O25">
-        <v>2.835230139778417</v>
+        <v>1.492035487422271</v>
       </c>
     </row>
   </sheetData>
